--- a/biology/Botanique/Bougainvillea/Bougainvillea.xlsx
+++ b/biology/Botanique/Bougainvillea/Bougainvillea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bougainvillea est un genre d'arbustes de la famille des Nyctaginaceae.
 Certaines de ses espèces sont appelées bougainvillée (féminin) ou bougainvillier (masculin), notamment Bougainvillea glabra, Bougainvillea spectabilis et Bougainvillea buttiana.
@@ -512,11 +524,13 @@
           <t>Histoire botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philibert Commerson ainsi que sa collaboratrice et compagne Jeanne Barret, ont été les premiers botanistes à décrire et nommer un spécimen de ce genre, récolté au Brésil lors de l'expédition autour du monde dirigée par l'explorateur français Louis Antoine de Bougainville[1],
-[2].
-Commerson rend alors hommage à Bougainville en nommant le genre Buginvillaea, orthographe par la suite rectifiée en Bougainvillea[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philibert Commerson ainsi que sa collaboratrice et compagne Jeanne Barret, ont été les premiers botanistes à décrire et nommer un spécimen de ce genre, récolté au Brésil lors de l'expédition autour du monde dirigée par l'explorateur français Louis Antoine de Bougainville,
+.
+Commerson rend alors hommage à Bougainville en nommant le genre Buginvillaea, orthographe par la suite rectifiée en Bougainvillea.
 Jeanne Barret voit le travail entièrement attribué à son compagnon, et devra attendre 2012 pour voir son nom immortalisé à travers la plante Solanum baretiae.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbustes épineux grimpants aux vives couleurs.
 Ce qu'on prend généralement pour les fleurs, ou les pétales des fleurs, très colorés, n'en sont pas. Ce sont les bractées de l'extrémité des rameaux. Les fleurs sont petites et blanches, et se trouvent entre les bractées.
@@ -580,7 +596,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bougainvillier est considéré comme une plante magique dans les rites vaudou et antillais pour se venger des femmes méprisantes en causant leur déchéance. Il ne doit pas être confondu avec le flamboyant qui correspond aux rites funéraires.
@@ -615,7 +633,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon The Plant List   25 septembre 2012
+          <t>Selon The Plant List   25 septembre 2012</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bougainvillea berberidifolia Heimerl  , (1901)
 Bougainvillea buttiana Holttum &amp; Standl. , (1944)
 Bougainvillea campanulata Heimerl  , (1913)
@@ -634,17 +658,86 @@
 Bougainvillea spinosa (Cav.) Heimerl  , (1889)
 Bougainvillea stipitata Griseb. , (1874)
 Bougainvillea trollii Heimerl  , (1932)
-Selon NCBI
-Bougainvillea alba
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bougainvillea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bougainvillea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Selon NCBI</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bougainvillea alba
 Bougainvillea glabra
 Bougainvillea infesta
 Bougainvillea modesta
 Bougainvillea peruviana
 Bougainvillea spectabilis
 Bougainvillea stipitata
-Bougainvillea x buttiana
-Selon ITI
-Bougainvillea glabra Choisy
+Bougainvillea x buttiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bougainvillea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bougainvillea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Selon ITI</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bougainvillea glabra Choisy
 Bougainvillea spectabilis Willd.
 			Bougainvillée région de Lima au Pérou.
 			Bougainvillée à Taormine.
@@ -657,33 +750,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bougainvillea</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bougainvillea</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bougainvillea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bougainvillea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon The Plant List[4]   25 septembre 2012
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon The Plant List   25 septembre 2012
 Bougainvillea brachycarpa Heimerl = Bougainvillea glabra Choisy  , (1849)
 Bougainvillea bracteata Pers. = Bougainvillea spectabilis Willd. , (1799)
 Bougainvillea brasiliensis Raeusch. 	= Bougainvillea spectabilis Willd. , (1799)
@@ -720,33 +815,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bougainvillea</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bougainvillea</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bougainvillea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bougainvillea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Espèces dont le statut n'est pas encore résolu</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon The Plant List[4]   25 septembre 2012
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon The Plant List   25 septembre 2012
 Bougainvillea fasciculata Heimerl
 Bougainvillea graciliflora Heimerl
 Bougainvillea luteoalba Heimerl ex Killeen
@@ -754,34 +851,36 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bougainvillea</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bougainvillea</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bougainvillea</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bougainvillea</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Phytochimie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bractées de Bougainvillea glabra sont colorées du fait de la présence de bétacyanines, en association à de grandes quantités de flavonols (conjugués de kaempférol et de quercétine)[5].
-Les feuilles de Bougainvillea spectabilis contiennent du pinitol, un composé aux propriétés anti-diabétiques[6].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bractées de Bougainvillea glabra sont colorées du fait de la présence de bétacyanines, en association à de grandes quantités de flavonols (conjugués de kaempférol et de quercétine).
+Les feuilles de Bougainvillea spectabilis contiennent du pinitol, un composé aux propriétés anti-diabétiques.
 </t>
         </is>
       </c>
